--- a/biology/Zoologie/Dipodillus_zakariai/Dipodillus_zakariai.xlsx
+++ b/biology/Zoologie/Dipodillus_zakariai/Dipodillus_zakariai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipodillus zakariai ou gerbille des îles Kerkennah est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés. Certains auteurs ne font pas la distinction avec l'espèce Gerbillus simoni[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipodillus zakariai ou gerbille des îles Kerkennah est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés. Certains auteurs ne font pas la distinction avec l'espèce Gerbillus simoni.
 </t>
         </is>
       </c>
